--- a/analisis_2025.xlsx
+++ b/analisis_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Mauricio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Mauricio\Desktop\FERREINOX VENTAS\Resumen-Ventas-Gerenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD4EF55-493A-472B-A6EF-891946DAC50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94A1AD-B947-42AA-9C1E-A07F3F4BEA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63AEA62F-EC17-43D5-AF0F-9EF4AE21A00F}"/>
   </bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A163E6-1D09-4EB4-8232-A18C2DC2CE08}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,14 +668,14 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>112316688.87530416</v>
+        <v>3000000000</v>
       </c>
       <c r="C3" s="5">
         <v>85124421.748069391</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>0.31944143136398445</v>
+        <v>34.242530150497494</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -699,14 +699,14 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1574862189.7271142</v>
+        <v>1574862189.7271099</v>
       </c>
       <c r="C4" s="5">
         <v>1302400689.8146079</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>0.20919944379888977</v>
+        <v>0.2091994437988865</v>
       </c>
       <c r="E4" s="7">
         <v>16</v>

--- a/analisis_2025.xlsx
+++ b/analisis_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Mauricio\Desktop\FERREINOX VENTAS\Resumen-Ventas-Gerenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94A1AD-B947-42AA-9C1E-A07F3F4BEA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63368E48-BDB7-444E-B114-8089BFE38413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63AEA62F-EC17-43D5-AF0F-9EF4AE21A00F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DETALLE DE %CREC'!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DETALLE DE %CREC'!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Vendedores</t>
   </si>
@@ -64,31 +64,16 @@
     <t xml:space="preserve">PEREZ SANTA GUSTAVO ADOLFO </t>
   </si>
   <si>
-    <t>EQUIPO CANALES DIGITALES</t>
-  </si>
-  <si>
     <t>LEDUYN MELGAREJO ARIAS</t>
   </si>
   <si>
-    <t>ELISABETH IBARRA M.</t>
-  </si>
-  <si>
     <t>JULIAN MAURICIO ORTIZ GOMEZ</t>
   </si>
   <si>
     <t>CARLOS ALBERTO CASTRILLON LOPEZ</t>
   </si>
   <si>
-    <t>PABLO CESAR MAFLA BAÑOL</t>
-  </si>
-  <si>
     <t>HUGO NELSON ZAPATA RAYO</t>
-  </si>
-  <si>
-    <t>JAIME ANDRES LONDOÑO MONTENEGRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANIA RESTREPO BENJUMEA </t>
   </si>
   <si>
     <t>JERSON ATEHORTUA OLARTE</t>
@@ -537,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A163E6-1D09-4EB4-8232-A18C2DC2CE08}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,37 +547,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -615,7 +600,7 @@
         <v>722447066.0806464</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D11" si="0">(B2-C2)/C2</f>
+        <f t="shared" ref="D2:D6" si="0">(B2-C2)/C2</f>
         <v>0.48350347390877896</v>
       </c>
       <c r="E2" s="7">
@@ -668,89 +653,117 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>3000000000</v>
+        <v>1574862189.7271099</v>
       </c>
       <c r="C3" s="5">
-        <v>85124421.748069391</v>
+        <v>1302400689.8146079</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>34.242530150497494</v>
+        <v>0.2091994437988865</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="8">
+        <v>41906187.537635513</v>
+      </c>
+      <c r="G3" s="9">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10">
+        <v>78354694.994100854</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1858535.8151260496</v>
+      </c>
+      <c r="K3" s="12">
+        <v>31</v>
+      </c>
+      <c r="L3" s="10">
+        <v>333090036</v>
+      </c>
+      <c r="M3" s="10">
+        <f>H3+J3+L3</f>
+        <v>413303266.80922687</v>
+      </c>
+      <c r="N3" s="9">
+        <v>17</v>
+      </c>
+      <c r="O3" s="10">
+        <v>108446408</v>
+      </c>
+      <c r="P3" s="10">
+        <f>H3+J3+L3-O3-F3</f>
+        <v>262950671.27159137</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>5</v>
+      </c>
+      <c r="R3" s="9">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1574862189.7271099</v>
+        <v>3256673950.8591776</v>
       </c>
       <c r="C4" s="5">
-        <v>1302400689.8146079</v>
+        <v>2729874211.8952804</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>0.2091994437988865</v>
+        <v>0.19297582894786713</v>
       </c>
       <c r="E4" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="8">
-        <v>41906187.537635513</v>
+        <v>74577960.143959373</v>
       </c>
       <c r="G4" s="9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H4" s="10">
-        <v>78354694.994100854</v>
+        <v>124499784</v>
       </c>
       <c r="I4" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="10">
-        <v>1858535.8151260496</v>
-      </c>
-      <c r="K4" s="12">
-        <v>31</v>
+        <v>41822097</v>
+      </c>
+      <c r="K4" s="9">
+        <v>50</v>
       </c>
       <c r="L4" s="10">
-        <v>333090036</v>
+        <v>648956073</v>
       </c>
       <c r="M4" s="10">
         <f>H4+J4+L4</f>
-        <v>413303266.80922687</v>
+        <v>815277954</v>
       </c>
       <c r="N4" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O4" s="10">
-        <v>108446408</v>
+        <v>267192055</v>
       </c>
       <c r="P4" s="10">
         <f>H4+J4+L4-O4-F4</f>
-        <v>262950671.27159137</v>
+        <v>473507938.8560406</v>
       </c>
       <c r="Q4" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -758,426 +771,243 @@
         <v>10</v>
       </c>
       <c r="B5" s="5">
-        <v>1108815787.7144146</v>
+        <v>1355071915.1694937</v>
       </c>
       <c r="C5" s="5">
-        <v>908801362.28218997</v>
+        <v>1171077935.5543418</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0.22008596568335534</v>
+        <v>0.15711505957804289</v>
       </c>
       <c r="E5" s="7">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8">
+        <v>24109122.387950893</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>19244004.676999997</v>
+      </c>
+      <c r="I5" s="9">
+        <v>13</v>
+      </c>
+      <c r="J5" s="10">
+        <v>125171866.17547899</v>
+      </c>
+      <c r="K5" s="9">
+        <v>49</v>
+      </c>
+      <c r="L5" s="10">
+        <v>234175633</v>
+      </c>
+      <c r="M5" s="10">
+        <f>H5+J5+L5</f>
+        <v>378591503.85247898</v>
+      </c>
+      <c r="N5" s="9">
+        <v>24</v>
+      </c>
+      <c r="O5" s="10">
+        <v>145960912</v>
+      </c>
+      <c r="P5" s="10">
+        <f>H5+J5+L5-O5-F5</f>
+        <v>208521469.46452808</v>
+      </c>
+      <c r="Q5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="R5" s="13">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>3256673950.8591776</v>
+        <v>2881327407.6060205</v>
       </c>
       <c r="C6" s="5">
-        <v>2729874211.8952804</v>
+        <v>2768919421.0699687</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.19297582894786713</v>
+        <v>4.0596337213964481E-2</v>
       </c>
       <c r="E6" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8">
-        <v>74577960.143959373</v>
+        <v>219301911.42386591</v>
       </c>
       <c r="G6" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H6" s="10">
-        <v>124499784</v>
+        <v>63616450.306388602</v>
       </c>
       <c r="I6" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="10">
-        <v>41822097</v>
+        <v>11513401.354621848</v>
       </c>
       <c r="K6" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L6" s="10">
-        <v>648956073</v>
+        <v>546685069</v>
       </c>
       <c r="M6" s="10">
         <f>H6+J6+L6</f>
-        <v>815277954</v>
+        <v>621814920.6610105</v>
       </c>
       <c r="N6" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="10">
-        <v>267192055</v>
+        <v>290105023</v>
       </c>
       <c r="P6" s="10">
         <f>H6+J6+L6-O6-F6</f>
-        <v>473507938.8560406</v>
+        <v>112407986.23714459</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
-        <v>1355071915.1694937</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1171077935.5543418</v>
+      <c r="B7" s="10">
+        <v>307998520.8909269</v>
+      </c>
+      <c r="C7" s="10">
+        <v>139596348.79615462</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15711505957804289</v>
-      </c>
-      <c r="E7" s="7">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8">
-        <v>24109122.387950893</v>
-      </c>
+        <f>(B7-C7)/C7</f>
+        <v>1.2063508361574795</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="10">
-        <v>19244004.676999997</v>
+        <v>28036330</v>
       </c>
       <c r="I7" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J7" s="10">
-        <v>125171866.17547899</v>
+        <v>60832759</v>
       </c>
       <c r="K7" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10">
-        <v>234175633</v>
+        <v>102003338</v>
       </c>
       <c r="M7" s="10">
         <f>H7+J7+L7</f>
-        <v>378591503.85247898</v>
+        <v>190872427</v>
       </c>
       <c r="N7" s="9">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O7" s="10">
-        <v>145960912</v>
+        <v>22470255</v>
       </c>
       <c r="P7" s="10">
-        <f>H7+J7+L7-O7-F7</f>
-        <v>208521469.46452808</v>
+        <f>H7+J7+L7-O7</f>
+        <v>168402172</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="R7" s="9">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
-        <v>3479315419.8167324</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3337768134.5483828</v>
+      <c r="B8" s="10">
+        <v>192136726.11487398</v>
+      </c>
+      <c r="C8" s="10">
+        <v>148938506.61265385</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.2407764578740494E-2</v>
-      </c>
-      <c r="E8" s="7">
+        <f>(B8-C8)/C8</f>
+        <v>0.290040638144481</v>
+      </c>
+      <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2881327407.6060205</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2768919421.0699687</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>4.0596337213964481E-2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>17</v>
-      </c>
-      <c r="F9" s="8">
-        <v>219301911.42386591</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F8" s="6"/>
+      <c r="G8" s="9">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10">
+        <v>14177940</v>
+      </c>
+      <c r="I8" s="9">
         <v>3</v>
       </c>
-      <c r="H9" s="10">
-        <v>63616450.306388602</v>
-      </c>
-      <c r="I9" s="9">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10">
-        <v>11513401.354621848</v>
-      </c>
-      <c r="K9" s="9">
-        <v>34</v>
-      </c>
-      <c r="L9" s="10">
-        <v>546685069</v>
-      </c>
-      <c r="M9" s="10">
-        <f>H9+J9+L9</f>
-        <v>621814920.6610105</v>
-      </c>
-      <c r="N9" s="9">
-        <v>26</v>
-      </c>
-      <c r="O9" s="10">
-        <v>290105023</v>
-      </c>
-      <c r="P9" s="10">
-        <f>H9+J9+L9-O9-F9</f>
-        <v>112407986.23714459</v>
-      </c>
-      <c r="Q9" s="9">
+      <c r="J8" s="10">
+        <v>11931143</v>
+      </c>
+      <c r="K8" s="9">
+        <v>11</v>
+      </c>
+      <c r="L8" s="10">
+        <v>69693687</v>
+      </c>
+      <c r="M8" s="10">
+        <f>H8+J8+L8</f>
+        <v>95802770</v>
+      </c>
+      <c r="N8" s="9">
+        <v>9</v>
+      </c>
+      <c r="O8" s="10">
+        <v>52604350</v>
+      </c>
+      <c r="P8" s="10">
+        <f>H8+J8+L8-O8</f>
+        <v>43198420</v>
+      </c>
+      <c r="Q8" s="9">
         <v>0</v>
       </c>
-      <c r="R9" s="9">
-        <v>67</v>
+      <c r="R8" s="9">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5">
-        <v>796958401.3537246</v>
-      </c>
-      <c r="C10" s="5">
-        <v>767144384.57887399</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>3.886363163724009E-2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5154554096.7229691</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4963677397.1931257</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>3.845469482722242E-2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="10">
-        <v>307998520.8909269</v>
-      </c>
-      <c r="C12" s="10">
-        <v>139596348.79615462</v>
-      </c>
-      <c r="D12" s="6">
-        <f>(B12-C12)/C12</f>
-        <v>1.2063508361574795</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9">
-        <v>8</v>
-      </c>
-      <c r="H12" s="10">
-        <v>28036330</v>
-      </c>
-      <c r="I12" s="9">
-        <v>8</v>
-      </c>
-      <c r="J12" s="10">
-        <v>60832759</v>
-      </c>
-      <c r="K12" s="9">
-        <v>16</v>
-      </c>
-      <c r="L12" s="10">
-        <v>102003338</v>
-      </c>
-      <c r="M12" s="10">
-        <f>H12+J12+L12</f>
-        <v>190872427</v>
-      </c>
-      <c r="N12" s="9">
-        <v>9</v>
-      </c>
-      <c r="O12" s="10">
-        <v>22470255</v>
-      </c>
-      <c r="P12" s="10">
-        <f>H12+J12+L12-O12</f>
-        <v>168402172</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>2</v>
-      </c>
-      <c r="R12" s="9">
-        <v>43</v>
-      </c>
+      <c r="P10" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10">
-        <v>192136726.11487398</v>
-      </c>
-      <c r="C13" s="10">
-        <v>148938506.61265385</v>
-      </c>
-      <c r="D13" s="6">
-        <f>(B13-C13)/C13</f>
-        <v>0.290040638144481</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9">
-        <v>6</v>
-      </c>
-      <c r="H13" s="10">
-        <v>14177940</v>
-      </c>
-      <c r="I13" s="9">
-        <v>3</v>
-      </c>
-      <c r="J13" s="10">
-        <v>11931143</v>
-      </c>
-      <c r="K13" s="9">
-        <v>11</v>
-      </c>
-      <c r="L13" s="10">
-        <v>69693687</v>
-      </c>
-      <c r="M13" s="10">
-        <f>H13+J13+L13</f>
-        <v>95802770</v>
-      </c>
-      <c r="N13" s="9">
-        <v>9</v>
-      </c>
-      <c r="O13" s="10">
-        <v>52604350</v>
-      </c>
-      <c r="P13" s="10">
-        <f>H13+J13+L13-O13</f>
-        <v>43198420</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P15" s="11"/>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O18" s="11"/>
+      <c r="O13" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-      <sortCondition descending="1" ref="D1:D11"/>
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+      <sortCondition descending="1" ref="D1:D6"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
